--- a/2014候選人號次/01臺北市－到齊/中山區.xlsx
+++ b/2014候選人號次/01臺北市－到齊/中山區.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="246" yWindow="105" windowWidth="14810" windowHeight="8008"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1142,266 +1140,266 @@
       <selection activeCell="A2" sqref="A2:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="14.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="22.3984375" style="1" customWidth="1"/>
+    <col min="257" max="257" width="22.375" style="1" customWidth="1"/>
     <col min="258" max="258" width="18" style="1" customWidth="1"/>
-    <col min="259" max="262" width="15.59765625" style="1" customWidth="1"/>
+    <col min="259" max="262" width="15.625" style="1" customWidth="1"/>
     <col min="263" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="22.3984375" style="1" customWidth="1"/>
+    <col min="513" max="513" width="22.375" style="1" customWidth="1"/>
     <col min="514" max="514" width="18" style="1" customWidth="1"/>
-    <col min="515" max="518" width="15.59765625" style="1" customWidth="1"/>
+    <col min="515" max="518" width="15.625" style="1" customWidth="1"/>
     <col min="519" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="22.3984375" style="1" customWidth="1"/>
+    <col min="769" max="769" width="22.375" style="1" customWidth="1"/>
     <col min="770" max="770" width="18" style="1" customWidth="1"/>
-    <col min="771" max="774" width="15.59765625" style="1" customWidth="1"/>
+    <col min="771" max="774" width="15.625" style="1" customWidth="1"/>
     <col min="775" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="22.375" style="1" customWidth="1"/>
     <col min="1026" max="1026" width="18" style="1" customWidth="1"/>
-    <col min="1027" max="1030" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1027" max="1030" width="15.625" style="1" customWidth="1"/>
     <col min="1031" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="22.375" style="1" customWidth="1"/>
     <col min="1282" max="1282" width="18" style="1" customWidth="1"/>
-    <col min="1283" max="1286" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1283" max="1286" width="15.625" style="1" customWidth="1"/>
     <col min="1287" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="22.375" style="1" customWidth="1"/>
     <col min="1538" max="1538" width="18" style="1" customWidth="1"/>
-    <col min="1539" max="1542" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1539" max="1542" width="15.625" style="1" customWidth="1"/>
     <col min="1543" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="22.375" style="1" customWidth="1"/>
     <col min="1794" max="1794" width="18" style="1" customWidth="1"/>
-    <col min="1795" max="1798" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1795" max="1798" width="15.625" style="1" customWidth="1"/>
     <col min="1799" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="22.3984375" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="22.375" style="1" customWidth="1"/>
     <col min="2050" max="2050" width="18" style="1" customWidth="1"/>
-    <col min="2051" max="2054" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2051" max="2054" width="15.625" style="1" customWidth="1"/>
     <col min="2055" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="22.3984375" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="22.375" style="1" customWidth="1"/>
     <col min="2306" max="2306" width="18" style="1" customWidth="1"/>
-    <col min="2307" max="2310" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2307" max="2310" width="15.625" style="1" customWidth="1"/>
     <col min="2311" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="22.3984375" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="22.375" style="1" customWidth="1"/>
     <col min="2562" max="2562" width="18" style="1" customWidth="1"/>
-    <col min="2563" max="2566" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2563" max="2566" width="15.625" style="1" customWidth="1"/>
     <col min="2567" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="22.3984375" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="22.375" style="1" customWidth="1"/>
     <col min="2818" max="2818" width="18" style="1" customWidth="1"/>
-    <col min="2819" max="2822" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2819" max="2822" width="15.625" style="1" customWidth="1"/>
     <col min="2823" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="22.3984375" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="22.375" style="1" customWidth="1"/>
     <col min="3074" max="3074" width="18" style="1" customWidth="1"/>
-    <col min="3075" max="3078" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3075" max="3078" width="15.625" style="1" customWidth="1"/>
     <col min="3079" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="22.3984375" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="22.375" style="1" customWidth="1"/>
     <col min="3330" max="3330" width="18" style="1" customWidth="1"/>
-    <col min="3331" max="3334" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3331" max="3334" width="15.625" style="1" customWidth="1"/>
     <col min="3335" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="22.3984375" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="22.375" style="1" customWidth="1"/>
     <col min="3586" max="3586" width="18" style="1" customWidth="1"/>
-    <col min="3587" max="3590" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3587" max="3590" width="15.625" style="1" customWidth="1"/>
     <col min="3591" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="22.3984375" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="22.375" style="1" customWidth="1"/>
     <col min="3842" max="3842" width="18" style="1" customWidth="1"/>
-    <col min="3843" max="3846" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3843" max="3846" width="15.625" style="1" customWidth="1"/>
     <col min="3847" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="22.375" style="1" customWidth="1"/>
     <col min="4098" max="4098" width="18" style="1" customWidth="1"/>
-    <col min="4099" max="4102" width="15.59765625" style="1" customWidth="1"/>
+    <col min="4099" max="4102" width="15.625" style="1" customWidth="1"/>
     <col min="4103" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="22.375" style="1" customWidth="1"/>
     <col min="4354" max="4354" width="18" style="1" customWidth="1"/>
-    <col min="4355" max="4358" width="15.59765625" style="1" customWidth="1"/>
+    <col min="4355" max="4358" width="15.625" style="1" customWidth="1"/>
     <col min="4359" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="22.375" style="1" customWidth="1"/>
     <col min="4610" max="4610" width="18" style="1" customWidth="1"/>
-    <col min="4611" max="4614" width="15.59765625" style="1" customWidth="1"/>
+    <col min="4611" max="4614" width="15.625" style="1" customWidth="1"/>
     <col min="4615" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="22.375" style="1" customWidth="1"/>
     <col min="4866" max="4866" width="18" style="1" customWidth="1"/>
-    <col min="4867" max="4870" width="15.59765625" style="1" customWidth="1"/>
+    <col min="4867" max="4870" width="15.625" style="1" customWidth="1"/>
     <col min="4871" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="22.375" style="1" customWidth="1"/>
     <col min="5122" max="5122" width="18" style="1" customWidth="1"/>
-    <col min="5123" max="5126" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5123" max="5126" width="15.625" style="1" customWidth="1"/>
     <col min="5127" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="22.375" style="1" customWidth="1"/>
     <col min="5378" max="5378" width="18" style="1" customWidth="1"/>
-    <col min="5379" max="5382" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5379" max="5382" width="15.625" style="1" customWidth="1"/>
     <col min="5383" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="22.375" style="1" customWidth="1"/>
     <col min="5634" max="5634" width="18" style="1" customWidth="1"/>
-    <col min="5635" max="5638" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5635" max="5638" width="15.625" style="1" customWidth="1"/>
     <col min="5639" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="22.375" style="1" customWidth="1"/>
     <col min="5890" max="5890" width="18" style="1" customWidth="1"/>
-    <col min="5891" max="5894" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5891" max="5894" width="15.625" style="1" customWidth="1"/>
     <col min="5895" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="22.3984375" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="22.375" style="1" customWidth="1"/>
     <col min="6146" max="6146" width="18" style="1" customWidth="1"/>
-    <col min="6147" max="6150" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6147" max="6150" width="15.625" style="1" customWidth="1"/>
     <col min="6151" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="22.3984375" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="22.375" style="1" customWidth="1"/>
     <col min="6402" max="6402" width="18" style="1" customWidth="1"/>
-    <col min="6403" max="6406" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6403" max="6406" width="15.625" style="1" customWidth="1"/>
     <col min="6407" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="22.3984375" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="22.375" style="1" customWidth="1"/>
     <col min="6658" max="6658" width="18" style="1" customWidth="1"/>
-    <col min="6659" max="6662" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6659" max="6662" width="15.625" style="1" customWidth="1"/>
     <col min="6663" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="22.3984375" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="22.375" style="1" customWidth="1"/>
     <col min="6914" max="6914" width="18" style="1" customWidth="1"/>
-    <col min="6915" max="6918" width="15.59765625" style="1" customWidth="1"/>
+    <col min="6915" max="6918" width="15.625" style="1" customWidth="1"/>
     <col min="6919" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="22.3984375" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="22.375" style="1" customWidth="1"/>
     <col min="7170" max="7170" width="18" style="1" customWidth="1"/>
-    <col min="7171" max="7174" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7171" max="7174" width="15.625" style="1" customWidth="1"/>
     <col min="7175" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="22.3984375" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="22.375" style="1" customWidth="1"/>
     <col min="7426" max="7426" width="18" style="1" customWidth="1"/>
-    <col min="7427" max="7430" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7427" max="7430" width="15.625" style="1" customWidth="1"/>
     <col min="7431" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="22.3984375" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="22.375" style="1" customWidth="1"/>
     <col min="7682" max="7682" width="18" style="1" customWidth="1"/>
-    <col min="7683" max="7686" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7683" max="7686" width="15.625" style="1" customWidth="1"/>
     <col min="7687" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="22.3984375" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="22.375" style="1" customWidth="1"/>
     <col min="7938" max="7938" width="18" style="1" customWidth="1"/>
-    <col min="7939" max="7942" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7939" max="7942" width="15.625" style="1" customWidth="1"/>
     <col min="7943" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="22.3984375" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="22.375" style="1" customWidth="1"/>
     <col min="8194" max="8194" width="18" style="1" customWidth="1"/>
-    <col min="8195" max="8198" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8195" max="8198" width="15.625" style="1" customWidth="1"/>
     <col min="8199" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="22.3984375" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="22.375" style="1" customWidth="1"/>
     <col min="8450" max="8450" width="18" style="1" customWidth="1"/>
-    <col min="8451" max="8454" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8451" max="8454" width="15.625" style="1" customWidth="1"/>
     <col min="8455" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="22.3984375" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="22.375" style="1" customWidth="1"/>
     <col min="8706" max="8706" width="18" style="1" customWidth="1"/>
-    <col min="8707" max="8710" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8707" max="8710" width="15.625" style="1" customWidth="1"/>
     <col min="8711" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="22.3984375" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="22.375" style="1" customWidth="1"/>
     <col min="8962" max="8962" width="18" style="1" customWidth="1"/>
-    <col min="8963" max="8966" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8963" max="8966" width="15.625" style="1" customWidth="1"/>
     <col min="8967" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="22.3984375" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="22.375" style="1" customWidth="1"/>
     <col min="9218" max="9218" width="18" style="1" customWidth="1"/>
-    <col min="9219" max="9222" width="15.59765625" style="1" customWidth="1"/>
+    <col min="9219" max="9222" width="15.625" style="1" customWidth="1"/>
     <col min="9223" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="22.3984375" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="22.375" style="1" customWidth="1"/>
     <col min="9474" max="9474" width="18" style="1" customWidth="1"/>
-    <col min="9475" max="9478" width="15.59765625" style="1" customWidth="1"/>
+    <col min="9475" max="9478" width="15.625" style="1" customWidth="1"/>
     <col min="9479" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="22.3984375" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="22.375" style="1" customWidth="1"/>
     <col min="9730" max="9730" width="18" style="1" customWidth="1"/>
-    <col min="9731" max="9734" width="15.59765625" style="1" customWidth="1"/>
+    <col min="9731" max="9734" width="15.625" style="1" customWidth="1"/>
     <col min="9735" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="22.3984375" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="22.375" style="1" customWidth="1"/>
     <col min="9986" max="9986" width="18" style="1" customWidth="1"/>
-    <col min="9987" max="9990" width="15.59765625" style="1" customWidth="1"/>
+    <col min="9987" max="9990" width="15.625" style="1" customWidth="1"/>
     <col min="9991" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="22.3984375" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="22.375" style="1" customWidth="1"/>
     <col min="10242" max="10242" width="18" style="1" customWidth="1"/>
-    <col min="10243" max="10246" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10243" max="10246" width="15.625" style="1" customWidth="1"/>
     <col min="10247" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="22.3984375" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="22.375" style="1" customWidth="1"/>
     <col min="10498" max="10498" width="18" style="1" customWidth="1"/>
-    <col min="10499" max="10502" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10499" max="10502" width="15.625" style="1" customWidth="1"/>
     <col min="10503" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="22.3984375" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="22.375" style="1" customWidth="1"/>
     <col min="10754" max="10754" width="18" style="1" customWidth="1"/>
-    <col min="10755" max="10758" width="15.59765625" style="1" customWidth="1"/>
+    <col min="10755" max="10758" width="15.625" style="1" customWidth="1"/>
     <col min="10759" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="22.3984375" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="22.375" style="1" customWidth="1"/>
     <col min="11010" max="11010" width="18" style="1" customWidth="1"/>
-    <col min="11011" max="11014" width="15.59765625" style="1" customWidth="1"/>
+    <col min="11011" max="11014" width="15.625" style="1" customWidth="1"/>
     <col min="11015" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="22.3984375" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="22.375" style="1" customWidth="1"/>
     <col min="11266" max="11266" width="18" style="1" customWidth="1"/>
-    <col min="11267" max="11270" width="15.59765625" style="1" customWidth="1"/>
+    <col min="11267" max="11270" width="15.625" style="1" customWidth="1"/>
     <col min="11271" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="22.3984375" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="22.375" style="1" customWidth="1"/>
     <col min="11522" max="11522" width="18" style="1" customWidth="1"/>
-    <col min="11523" max="11526" width="15.59765625" style="1" customWidth="1"/>
+    <col min="11523" max="11526" width="15.625" style="1" customWidth="1"/>
     <col min="11527" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="22.3984375" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="22.375" style="1" customWidth="1"/>
     <col min="11778" max="11778" width="18" style="1" customWidth="1"/>
-    <col min="11779" max="11782" width="15.59765625" style="1" customWidth="1"/>
+    <col min="11779" max="11782" width="15.625" style="1" customWidth="1"/>
     <col min="11783" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="22.3984375" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="22.375" style="1" customWidth="1"/>
     <col min="12034" max="12034" width="18" style="1" customWidth="1"/>
-    <col min="12035" max="12038" width="15.59765625" style="1" customWidth="1"/>
+    <col min="12035" max="12038" width="15.625" style="1" customWidth="1"/>
     <col min="12039" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="22.3984375" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="22.375" style="1" customWidth="1"/>
     <col min="12290" max="12290" width="18" style="1" customWidth="1"/>
-    <col min="12291" max="12294" width="15.59765625" style="1" customWidth="1"/>
+    <col min="12291" max="12294" width="15.625" style="1" customWidth="1"/>
     <col min="12295" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="22.3984375" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="22.375" style="1" customWidth="1"/>
     <col min="12546" max="12546" width="18" style="1" customWidth="1"/>
-    <col min="12547" max="12550" width="15.59765625" style="1" customWidth="1"/>
+    <col min="12547" max="12550" width="15.625" style="1" customWidth="1"/>
     <col min="12551" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="22.3984375" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="22.375" style="1" customWidth="1"/>
     <col min="12802" max="12802" width="18" style="1" customWidth="1"/>
-    <col min="12803" max="12806" width="15.59765625" style="1" customWidth="1"/>
+    <col min="12803" max="12806" width="15.625" style="1" customWidth="1"/>
     <col min="12807" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="22.3984375" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="22.375" style="1" customWidth="1"/>
     <col min="13058" max="13058" width="18" style="1" customWidth="1"/>
-    <col min="13059" max="13062" width="15.59765625" style="1" customWidth="1"/>
+    <col min="13059" max="13062" width="15.625" style="1" customWidth="1"/>
     <col min="13063" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="22.3984375" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="22.375" style="1" customWidth="1"/>
     <col min="13314" max="13314" width="18" style="1" customWidth="1"/>
-    <col min="13315" max="13318" width="15.59765625" style="1" customWidth="1"/>
+    <col min="13315" max="13318" width="15.625" style="1" customWidth="1"/>
     <col min="13319" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="22.3984375" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="22.375" style="1" customWidth="1"/>
     <col min="13570" max="13570" width="18" style="1" customWidth="1"/>
-    <col min="13571" max="13574" width="15.59765625" style="1" customWidth="1"/>
+    <col min="13571" max="13574" width="15.625" style="1" customWidth="1"/>
     <col min="13575" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="22.3984375" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="22.375" style="1" customWidth="1"/>
     <col min="13826" max="13826" width="18" style="1" customWidth="1"/>
-    <col min="13827" max="13830" width="15.59765625" style="1" customWidth="1"/>
+    <col min="13827" max="13830" width="15.625" style="1" customWidth="1"/>
     <col min="13831" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="22.3984375" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="22.375" style="1" customWidth="1"/>
     <col min="14082" max="14082" width="18" style="1" customWidth="1"/>
-    <col min="14083" max="14086" width="15.59765625" style="1" customWidth="1"/>
+    <col min="14083" max="14086" width="15.625" style="1" customWidth="1"/>
     <col min="14087" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="22.3984375" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="22.375" style="1" customWidth="1"/>
     <col min="14338" max="14338" width="18" style="1" customWidth="1"/>
-    <col min="14339" max="14342" width="15.59765625" style="1" customWidth="1"/>
+    <col min="14339" max="14342" width="15.625" style="1" customWidth="1"/>
     <col min="14343" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="22.3984375" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="22.375" style="1" customWidth="1"/>
     <col min="14594" max="14594" width="18" style="1" customWidth="1"/>
-    <col min="14595" max="14598" width="15.59765625" style="1" customWidth="1"/>
+    <col min="14595" max="14598" width="15.625" style="1" customWidth="1"/>
     <col min="14599" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="22.3984375" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="22.375" style="1" customWidth="1"/>
     <col min="14850" max="14850" width="18" style="1" customWidth="1"/>
-    <col min="14851" max="14854" width="15.59765625" style="1" customWidth="1"/>
+    <col min="14851" max="14854" width="15.625" style="1" customWidth="1"/>
     <col min="14855" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="22.3984375" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="22.375" style="1" customWidth="1"/>
     <col min="15106" max="15106" width="18" style="1" customWidth="1"/>
-    <col min="15107" max="15110" width="15.59765625" style="1" customWidth="1"/>
+    <col min="15107" max="15110" width="15.625" style="1" customWidth="1"/>
     <col min="15111" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="22.3984375" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="22.375" style="1" customWidth="1"/>
     <col min="15362" max="15362" width="18" style="1" customWidth="1"/>
-    <col min="15363" max="15366" width="15.59765625" style="1" customWidth="1"/>
+    <col min="15363" max="15366" width="15.625" style="1" customWidth="1"/>
     <col min="15367" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="22.3984375" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="22.375" style="1" customWidth="1"/>
     <col min="15618" max="15618" width="18" style="1" customWidth="1"/>
-    <col min="15619" max="15622" width="15.59765625" style="1" customWidth="1"/>
+    <col min="15619" max="15622" width="15.625" style="1" customWidth="1"/>
     <col min="15623" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="22.3984375" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="22.375" style="1" customWidth="1"/>
     <col min="15874" max="15874" width="18" style="1" customWidth="1"/>
-    <col min="15875" max="15878" width="15.59765625" style="1" customWidth="1"/>
+    <col min="15875" max="15878" width="15.625" style="1" customWidth="1"/>
     <col min="15879" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="22.3984375" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="22.375" style="1" customWidth="1"/>
     <col min="16130" max="16130" width="18" style="1" customWidth="1"/>
-    <col min="16131" max="16134" width="15.59765625" style="1" customWidth="1"/>
+    <col min="16131" max="16134" width="15.625" style="1" customWidth="1"/>
     <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1409,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1421,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1433,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1447,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1461,7 +1459,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1473,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1485,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1499,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1513,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1527,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1543,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1557,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1571,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1583,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1599,7 +1597,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1615,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1629,7 +1627,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1645,7 +1643,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1657,7 +1655,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1669,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1685,7 +1683,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1697,7 +1695,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="9" t="s">
         <v>65</v>
@@ -1729,7 +1727,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1745,7 +1743,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -1757,7 +1755,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1791,7 +1789,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1805,7 +1803,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1821,7 +1819,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -1837,7 +1835,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -1851,7 +1849,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -1865,7 +1863,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -1881,7 +1879,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -1893,7 +1891,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -1907,7 +1905,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -1925,7 +1923,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -1939,7 +1937,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -1953,7 +1951,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>119</v>
       </c>
@@ -1967,7 +1965,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
@@ -1981,7 +1979,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
@@ -1993,7 +1991,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2005,7 +2003,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -2023,7 +2021,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>134</v>
       </c>
@@ -2039,7 +2037,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2058,30 +2056,4 @@
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>